--- a/01. 분석 - 사용자_요구사항_정의서-odong-gram.xlsx
+++ b/01. 분석 - 사용자_요구사항_정의서-odong-gram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SWDO_PJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="3216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="166">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -366,278 +366,318 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>그룹 게시물 내 사진첨부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 게시물 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹회원, 그룹관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 초대코드 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 대표 게시물 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체 그룹관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.그룹 게시물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내 회원 메모작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.그룹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지송/수신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원으로 가입한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 통해 접속 및 접속해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필을 수정한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹을 생성한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 초대할 수 있는 코드를 생성한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에 다른 회원을 초대한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹에서 탈퇴한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 멤버의 권한 수정 및 추방을 할 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>그룹 멤버에게 개인 메모를 저장할 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내에 게시물을 올린다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물에 사진을 첨부할 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물을 삭제한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 내 대표 게시물을 선택한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글을 작성한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 사진 지정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 사진을 지정할 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글을 수정한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글을 삭제한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글에 해시태그를 달 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지를 주고받는다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김보성, 김영수, 정수환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경사항 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.03.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 게시물 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 게시물을 수정할 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.쪽지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.알림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 수신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버로부터 알림을 받을 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.통계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자들의 데이터를 분석한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 및 비밀번호를 찾을 수 있다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>M10</t>
-  </si>
-  <si>
-    <t>그룹 게시물 내 사진첨부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 게시물 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹회원, 그룹관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 초대코드 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 대표 게시물 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단체 그룹관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.그룹 게시물</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 내 회원 메모작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.그룹 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해시태그 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.쪽지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪽지송/수신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원으로 가입한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보를 통해 접속 및 접속해제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필을 수정한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹을 생성한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹에 초대할 수 있는 코드를 생성한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹에 다른 회원을 초대한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹에서 탈퇴한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 멤버의 권한 수정 및 추방을 할 수 있다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>M11</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t>그룹 멤버에게 개인 메모를 저장할 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 내에 게시물을 올린다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물에 사진을 첨부할 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물을 삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 내 대표 게시물을 선택한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글을 작성한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 사진 지정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 사진을 지정할 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글을 수정한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글을 삭제한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글에 해시태그를 달 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쪽지를 주고받는다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M08</t>
-  </si>
-  <si>
-    <t>M09</t>
-  </si>
-  <si>
-    <t>M13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보를 찾을 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보성, 김영수, 정수환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경사항 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.03.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 게시물 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹회원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성한 게시물을 수정할 수 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2053,16 +2093,16 @@
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>64</v>
@@ -2071,19 +2111,19 @@
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F6" s="43"/>
     </row>
@@ -2235,8 +2275,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2277,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
@@ -2297,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="54"/>
       <c r="I3" s="17" t="s">
@@ -2376,7 +2416,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2396,7 +2436,7 @@
         <v>80</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2416,7 +2456,7 @@
         <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -2436,7 +2476,7 @@
         <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2447,16 +2487,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="30" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2481,7 +2521,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>75</v>
@@ -2490,7 +2530,7 @@
         <v>81</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -2500,17 +2540,17 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="31" t="s">
-        <v>132</v>
+      <c r="A14" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -2520,8 +2560,8 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="31" t="s">
-        <v>133</v>
+      <c r="A15" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>76</v>
@@ -2530,7 +2570,7 @@
         <v>82</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2540,8 +2580,8 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="31" t="s">
-        <v>134</v>
+      <c r="A16" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>83</v>
@@ -2550,7 +2590,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2560,8 +2600,8 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="31" t="s">
-        <v>87</v>
+      <c r="A17" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>85</v>
@@ -2570,7 +2610,7 @@
         <v>82</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -2580,17 +2620,17 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="31" t="s">
-        <v>116</v>
+      <c r="A18" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -2601,16 +2641,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -2621,7 +2661,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -2635,7 +2675,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>86</v>
@@ -2644,7 +2684,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -2655,16 +2695,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="30" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -2675,16 +2715,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="30" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2695,16 +2735,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D24" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -2715,16 +2755,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D25" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -2735,16 +2775,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -2755,7 +2795,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -2769,16 +2809,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="30" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -2789,16 +2829,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2809,16 +2849,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -2829,7 +2869,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="44" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -2843,16 +2883,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -2861,28 +2901,86 @@
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="34" spans="1:3" ht="15.6">
-      <c r="A34" s="33"/>
-      <c r="C34" s="33"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.6">
-      <c r="A35" s="33"/>
-      <c r="C35" s="33"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.6">
-      <c r="A36" s="33"/>
-      <c r="C36" s="33"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.6">
+    <row r="33" spans="1:10">
+      <c r="A33" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6">
       <c r="A37" s="33"/>
       <c r="C37" s="33"/>
     </row>
-    <row r="38" spans="1:3" ht="15.6">
+    <row r="38" spans="1:10" ht="15.6">
       <c r="A38" s="33"/>
       <c r="C38" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A1:J1"/>
